--- a/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Rangpur.xlsx
+++ b/input_spreadsheets/Bangladesh/2016Oct/subregionSpreadsheets/Rangpur.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12360" yWindow="-21140" windowWidth="19280" windowHeight="21140" tabRatio="500" firstSheet="18" activeTab="19"/>
+    <workbookView xWindow="-1380" yWindow="-21100" windowWidth="19280" windowHeight="21140" tabRatio="500" firstSheet="21" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="demographics" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
     <author>Janka Petravic</author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -336,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -385,7 +385,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="80">
   <si>
     <t>indicators</t>
   </si>
@@ -582,9 +582,6 @@
     <t>Vitamin A supplementation</t>
   </si>
   <si>
-    <t>Multiple micronutrient supplementation</t>
-  </si>
-  <si>
     <t>pregnant women</t>
   </si>
   <si>
@@ -625,6 +622,9 @@
   </si>
   <si>
     <t>Food security &amp; education</t>
+  </si>
+  <si>
+    <t>Antenatal micronutrient supplementation</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -829,16 +829,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -850,6 +846,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1489,7 +1488,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="16">
         <v>1670322.9164716236</v>
       </c>
     </row>
@@ -1497,7 +1496,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>342558.68727570045</v>
       </c>
     </row>
@@ -1505,13 +1504,13 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="16">
         <v>393721.39010491758</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="3">
         <v>0.56799999999999995</v>
@@ -1519,17 +1518,17 @@
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B6" s="24">
+        <v>71</v>
+      </c>
+      <c r="B6" s="22">
         <v>0.56599999999999995</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="25">
+        <v>72</v>
+      </c>
+      <c r="B7" s="23">
         <v>0.20599999999999999</v>
       </c>
     </row>
@@ -2746,7 +2745,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -2806,7 +2805,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -2914,7 +2913,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2943,33 +2942,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="25">
+        <v>5.16</v>
+      </c>
+      <c r="C2" s="25">
+        <v>5.16</v>
+      </c>
+      <c r="D2" s="25">
+        <v>1</v>
+      </c>
+      <c r="E2" s="20">
+        <v>1</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="7">
-        <v>5.16</v>
-      </c>
-      <c r="C2" s="7">
-        <v>5.16</v>
-      </c>
-      <c r="D2" s="7">
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="25">
         <v>1.82</v>
       </c>
-      <c r="E2" s="11">
+      <c r="E3" s="20">
         <v>1.82</v>
       </c>
-      <c r="F2" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
@@ -2988,7 +2999,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -3074,7 +3087,7 @@
       <c r="A2" s="5">
         <v>2017</v>
       </c>
-      <c r="B2" s="15">
+      <c r="B2" s="14">
         <v>340098.1581981951</v>
       </c>
     </row>
@@ -3082,7 +3095,7 @@
       <c r="A3" s="5">
         <v>2018</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="14">
         <v>337464.61847210204</v>
       </c>
     </row>
@@ -3090,7 +3103,7 @@
       <c r="A4" s="5">
         <v>2019</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="14">
         <v>334631.37401179445</v>
       </c>
     </row>
@@ -3098,7 +3111,7 @@
       <c r="A5" s="5">
         <v>2020</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>331581.94255771092</v>
       </c>
     </row>
@@ -3106,7 +3119,7 @@
       <c r="A6" s="5">
         <v>2021</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>328683.72739822575</v>
       </c>
     </row>
@@ -3114,7 +3127,7 @@
       <c r="A7" s="5">
         <v>2022</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="14">
         <v>325937.45758262626</v>
       </c>
     </row>
@@ -3122,7 +3135,7 @@
       <c r="A8" s="5">
         <v>2023</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="14">
         <v>322958.61410114786</v>
       </c>
     </row>
@@ -3130,7 +3143,7 @@
       <c r="A9" s="5">
         <v>2024</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="14">
         <v>319755.8881905821</v>
       </c>
     </row>
@@ -3138,7 +3151,7 @@
       <c r="A10" s="5">
         <v>2025</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="14">
         <v>316332.16935513576</v>
       </c>
     </row>
@@ -3146,7 +3159,7 @@
       <c r="A11" s="5">
         <v>2026</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="14">
         <v>311741.8330944418</v>
       </c>
     </row>
@@ -3154,7 +3167,7 @@
       <c r="A12" s="5">
         <v>2027</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>308100.70446041098</v>
       </c>
     </row>
@@ -3162,7 +3175,7 @@
       <c r="A13" s="5">
         <v>2028</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>304284.36973947572</v>
       </c>
     </row>
@@ -3170,7 +3183,7 @@
       <c r="A14" s="5">
         <v>2029</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>300297.99393894878</v>
       </c>
     </row>
@@ -3178,7 +3191,7 @@
       <c r="A15" s="5">
         <v>2030</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>296143.65303871129</v>
       </c>
     </row>
@@ -3190,10 +3203,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3220,121 +3233,111 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="19">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B2" s="17">
+        <v>0.65500000000000003</v>
       </c>
       <c r="C2" s="2">
         <v>0.85</v>
       </c>
-      <c r="D2" s="18">
-        <v>7.08</v>
+      <c r="D2" s="17">
+        <v>0.35</v>
       </c>
       <c r="E2" s="2"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="18">
-        <v>0.65500000000000003</v>
+        <v>75</v>
+      </c>
+      <c r="B3" s="17">
+        <v>0.35799999999999998</v>
       </c>
       <c r="C3" s="2">
         <v>0.85</v>
       </c>
-      <c r="D3" s="18">
-        <v>0.35</v>
+      <c r="D3" s="17">
+        <v>3.56</v>
       </c>
       <c r="E3" s="2"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="18">
-        <v>0.35799999999999998</v>
+      <c r="B4" s="17">
+        <v>0</v>
       </c>
       <c r="C4" s="2">
         <v>0.85</v>
       </c>
-      <c r="D4" s="18">
-        <v>3.56</v>
+      <c r="D4" s="17">
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
       <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="18">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B5" s="17">
+        <v>0.61</v>
       </c>
       <c r="C5" s="2">
         <v>0.85</v>
       </c>
-      <c r="D5" s="18">
-        <v>48</v>
+      <c r="D5" s="17">
+        <v>3.56</v>
       </c>
       <c r="E5" s="2"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
       <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="18">
-        <v>0.61</v>
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="17">
+        <v>0</v>
       </c>
       <c r="C6" s="2">
         <v>0.85</v>
       </c>
-      <c r="D6" s="18">
-        <v>3.56</v>
+      <c r="D6" s="17">
+        <v>25</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="18">
+      <c r="A7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="17">
         <v>0</v>
       </c>
       <c r="C7" s="2">
         <v>0.85</v>
       </c>
-      <c r="D7" s="18">
-        <v>25</v>
+      <c r="D7" s="17">
+        <v>1.82</v>
       </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="18">
-        <v>0</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="D8" s="18">
-        <v>1.82</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3381,10 +3384,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3429,10 +3429,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3441,10 +3437,10 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3477,14 +3473,14 @@
         <v>15</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5">
         <v>0</v>
@@ -3493,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="5">
         <v>1</v>
@@ -3507,7 +3503,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -3522,7 +3518,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="5">
         <v>0</v>
@@ -3536,13 +3532,15 @@
         <v>0</v>
       </c>
       <c r="C4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.56599999999999995</v>
       </c>
       <c r="E4" s="5">
-        <v>1</v>
+        <f>demographics!$B$6</f>
+        <v>0.56599999999999995</v>
       </c>
       <c r="F4" s="5">
         <v>0</v>
@@ -3553,55 +3551,54 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
+      <c r="B6" s="5">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <f>demographics!$B$6</f>
         <v>0.56599999999999995</v>
       </c>
-      <c r="E5" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.56599999999999995</v>
-      </c>
-      <c r="F5" s="5">
-        <v>0</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="5">
-        <v>1</v>
-      </c>
-      <c r="C6" s="5">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0</v>
-      </c>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>78</v>
+      <c r="A7" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -3619,32 +3616,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <f>demographics!$B$6</f>
-        <v>0.56599999999999995</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="2"/>
@@ -3690,10 +3670,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="2"/>
@@ -3738,10 +3715,6 @@
     <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3755,7 +3728,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3768,7 +3741,7 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>46</v>
@@ -3785,77 +3758,77 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="14">
+        <v>67</v>
+      </c>
+      <c r="C2" s="13">
         <v>0.21</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="13">
         <v>0.21</v>
       </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+        <v>68</v>
+      </c>
+      <c r="C3" s="13">
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.32148799999999994</v>
       </c>
-      <c r="D3" s="14">
-        <f>demographics!$B$5 * 'Interventions target population'!$G$7</f>
+      <c r="D3" s="13">
+        <f>demographics!$B$5 * 'Interventions target population'!$G$6</f>
         <v>0.32148799999999994</v>
       </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>65</v>
+      <c r="A4" s="3" t="s">
+        <v>79</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="14">
+        <v>67</v>
+      </c>
+      <c r="C4" s="13">
         <v>0.1</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="13">
         <v>0.1</v>
       </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="E4" s="13">
+        <v>0</v>
+      </c>
+      <c r="F4" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="14">
-        <v>1</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
+        <v>68</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
         <v>0</v>
       </c>
     </row>
@@ -3866,10 +3839,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3879,7 +3852,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -3902,7 +3875,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -3914,17 +3887,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="22">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G2" s="22">
-        <v>0.29699999999999999</v>
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="F2" s="20">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="G2" s="20">
+        <v>0.33500000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -3937,55 +3909,23 @@
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="22">
-        <v>0.29699999999999999</v>
-      </c>
-      <c r="G3" s="22">
-        <v>0.29699999999999999</v>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="F4" s="22">
-        <v>0.33500000000000002</v>
-      </c>
-      <c r="G4" s="22">
-        <v>0.33500000000000002</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -3993,20 +3933,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4015,10 +3944,10 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4028,7 +3957,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4051,7 +3980,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4063,17 +3992,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="G2" s="2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4087,54 +4015,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.3</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4142,20 +4038,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4164,10 +4049,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4177,7 +4062,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>10</v>
@@ -4200,7 +4085,7 @@
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -4212,17 +4097,16 @@
         <v>0</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="F2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
       <c r="G2" s="2">
-        <v>0.65</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2"/>
       <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
@@ -4236,54 +4120,22 @@
         <v>0</v>
       </c>
       <c r="F3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G3" s="2">
-        <v>0.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="F4" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.62</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="2"/>
@@ -4291,20 +4143,9 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4763,82 +4604,82 @@
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="18">
         <v>53.985633752966464</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="18">
         <v>53.560586959129623</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>41.39540632487936</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="18">
         <v>23.668257653997038</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="18">
         <v>21.385961380218752</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="18">
         <v>19.221386216766867</v>
       </c>
-      <c r="D3" s="20">
+      <c r="D3" s="18">
         <v>19.070049870102462</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>26.49555601421315</v>
       </c>
-      <c r="F3" s="20">
+      <c r="F3" s="18">
         <v>28.621690095920734</v>
       </c>
-      <c r="G3" s="20">
+      <c r="G3" s="18">
         <v>28.030681745857471</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="18">
         <v>15.242374162700251</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>15.122365897205704</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>21.793997910678815</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>36.641117509870128</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>41.684834090176132</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="18">
         <v>3.2578695275153176</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="18">
         <v>3.232219240556649</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>4.1678616522967324</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="18">
         <v>11.404446183273876</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="18">
         <v>11.31933837593601</v>
       </c>
     </row>
@@ -4846,82 +4687,82 @@
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="19">
         <v>51.634699127390704</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="19">
         <v>51.228162021329183</v>
       </c>
-      <c r="E6" s="21">
+      <c r="E6" s="19">
         <v>52.851589691019207</v>
       </c>
-      <c r="F6" s="21">
+      <c r="F6" s="19">
         <v>49.543304505621535</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>44.218978520500087</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="19">
         <v>21.223168309153586</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="19">
         <v>21.056071268371511</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="19">
         <v>20.875332459200941</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="19">
         <v>27.126568727520816</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>34.722007971226631</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>23.681195520814708</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="19">
         <v>23.494745616819777</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="19">
         <v>20.205481230465015</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="19">
         <v>17.23948788244498</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="19">
         <v>16.455874796879293</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="19">
         <v>7.9485949080291762</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="19">
         <v>7.8860129849081915</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E9" s="19">
         <v>8.5297691469415149</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="19">
         <v>6.6023334075780369</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>3.3816829648570432</v>
       </c>
     </row>
@@ -4935,13 +4776,13 @@
       <c r="C10">
         <v>80.3</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="15">
         <v>46.2</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="15">
         <v>3.3</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="15">
         <v>0.7</v>
       </c>
       <c r="G10">
@@ -4955,13 +4796,13 @@
       <c r="C11">
         <v>6.8</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="15">
         <v>16.3</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="15">
         <v>9.4</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="15">
         <v>4.4000000000000004</v>
       </c>
       <c r="G11">
@@ -4975,13 +4816,13 @@
       <c r="C12">
         <v>10.7</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="15">
         <v>37.1</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="15">
         <v>83.7</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="15">
         <v>87.9</v>
       </c>
       <c r="G12">
@@ -4995,16 +4836,16 @@
       <c r="C13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="15">
         <v>0.5</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="15">
         <v>3.6</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="15">
         <v>6.9</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="15">
         <v>100</v>
       </c>
     </row>
@@ -5085,19 +4926,19 @@
       <c r="A2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="26">
+      <c r="B2" s="24">
         <v>1.1599999999999999</v>
       </c>
-      <c r="C2" s="26">
+      <c r="C2" s="24">
         <v>1.1599999999999999</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="24">
         <v>1.77</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="24">
         <v>1.43</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="24">
         <v>0.92</v>
       </c>
     </row>
